--- a/powershell/xls2xlsx/work/[sub]/2.xlsx
+++ b/powershell/xls2xlsx/work/[sub]/2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06EE999F-6572-4A03-9E9F-29BC2ED607B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E2AED37-8F06-4263-A81B-F8E759AD7A70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="22260" windowHeight="12645"/>
   </bookViews>

--- a/powershell/xls2xlsx/work/[sub]/2.xlsx
+++ b/powershell/xls2xlsx/work/[sub]/2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E2AED37-8F06-4263-A81B-F8E759AD7A70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C7C76A6-CD31-4FB8-A45A-7B4E12539666}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="22260" windowHeight="12645"/>
   </bookViews>

--- a/powershell/xls2xlsx/work/[sub]/2.xlsx
+++ b/powershell/xls2xlsx/work/[sub]/2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C7C76A6-CD31-4FB8-A45A-7B4E12539666}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1BECB60-BE35-4F86-A606-81CBD9BF48D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
